--- a/datasheets/D_Angela_and_Longinelli_1990.xlsx
+++ b/datasheets/D_Angela_and_Longinelli_1990.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="110">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cervus elaphus</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/0168-9622(90)90007-Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D’Angela and Longinelli (1990)</t>
   </si>
   <si>
     <t xml:space="preserve">Bialowiecza Park</t>
@@ -505,10 +511,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP91"/>
+  <dimension ref="A1:AQ91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP2" activeCellId="0" sqref="AP2:AP91"/>
+      <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2:AQ91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,7 +546,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="24.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="43" style="1" width="11.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="25.47"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="11.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,39 +677,42 @@
       <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="6" t="n">
         <v>12.79</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="5" t="n">
@@ -770,44 +780,47 @@
         <v>-12.5</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="n">
         <v>12.78</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="5" t="n">
@@ -875,44 +888,47 @@
         <v>-13.8</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="6" t="n">
         <v>14.9</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="5" t="n">
@@ -980,44 +996,47 @@
         <v>-10</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="n">
         <v>16.4</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="5" t="n">
@@ -1085,44 +1104,47 @@
         <v>-6.3</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="6" t="n">
         <v>16.5</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="5" t="n">
@@ -1190,44 +1212,47 @@
         <v>-11.6</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6" t="n">
         <v>16.8</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="5" t="n">
@@ -1295,44 +1320,47 @@
         <v>-11.1</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6" t="n">
         <v>18.38</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="5" t="n">
@@ -1400,44 +1428,47 @@
         <v>-8.6</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6" t="n">
         <v>14</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="5" t="n">
@@ -1505,44 +1536,47 @@
         <v>-12.3</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6" t="n">
         <v>14.6</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="5" t="n">
@@ -1610,44 +1644,47 @@
         <v>-12.3</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="6" t="n">
         <v>14.7</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="5" t="n">
@@ -1715,44 +1752,47 @@
         <v>-12.3</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6" t="n">
         <v>14</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="5" t="n">
@@ -1820,44 +1860,47 @@
         <v>-12.3</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6" t="n">
         <v>13.5</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="5" t="n">
@@ -1925,44 +1968,47 @@
         <v>-12.3</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6" t="n">
         <v>13.4</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="5" t="n">
@@ -2030,44 +2076,47 @@
         <v>-12.3</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="6" t="n">
         <v>13.6</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="5" t="n">
@@ -2135,44 +2184,47 @@
         <v>-12.3</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="n">
         <v>13.8</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="5" t="n">
@@ -2240,44 +2292,47 @@
         <v>-12.3</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="6" t="n">
         <v>14.7</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="5" t="n">
@@ -2345,44 +2400,47 @@
         <v>-9.8</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="6" t="n">
         <v>14.3</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="5" t="n">
@@ -2450,44 +2508,47 @@
         <v>-9.8</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6" t="n">
         <v>14.2</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="5" t="n">
@@ -2555,44 +2616,47 @@
         <v>-9.8</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="6" t="n">
         <v>15.2</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="5" t="n">
@@ -2660,44 +2724,47 @@
         <v>-9.8</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="6" t="n">
         <v>16.6</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="5" t="n">
@@ -2765,44 +2832,47 @@
         <v>-8.6</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="6" t="n">
         <v>15.7</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="5" t="n">
@@ -2870,44 +2940,47 @@
         <v>-8.6</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6" t="n">
         <v>15.6</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="5" t="n">
@@ -2975,42 +3048,45 @@
         <v>-8.6</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" s="6" t="n">
         <v>15.3</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="5" t="n">
@@ -3078,42 +3154,45 @@
         <v>-8.6</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" s="6" t="n">
         <v>16.7</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="5" t="n">
@@ -3181,42 +3260,45 @@
         <v>-8.6</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>15.7</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="5" t="n">
@@ -3284,42 +3366,45 @@
         <v>-9.3</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" s="6" t="n">
         <v>16.2</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="5" t="n">
@@ -3387,42 +3472,45 @@
         <v>-9.3</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>16.2</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="5" t="n">
@@ -3485,42 +3573,45 @@
         <v>-9.3</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>15.9</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="5" t="n">
@@ -3583,42 +3674,45 @@
         <v>-9.3</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>17.4</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="1" t="n">
@@ -3681,42 +3775,45 @@
         <v>-8.4</v>
       </c>
       <c r="AO30" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>17</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="1" t="n">
@@ -3779,42 +3876,45 @@
         <v>-8.4</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>16.6</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="1" t="n">
@@ -3878,42 +3978,45 @@
         <v>-8.4</v>
       </c>
       <c r="AO32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>16.4</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="1" t="n">
@@ -3977,42 +4080,45 @@
         <v>-8.4</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>16.9</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="1" t="n">
@@ -4076,42 +4182,45 @@
         <v>-8.4</v>
       </c>
       <c r="AO34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>16.7</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="1" t="n">
@@ -4175,42 +4284,45 @@
         <v>-8.4</v>
       </c>
       <c r="AO35" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>15.8</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="1" t="n">
@@ -4273,42 +4385,45 @@
         <v>-5.5</v>
       </c>
       <c r="AO36" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>17.1</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="1" t="n">
@@ -4371,42 +4486,45 @@
         <v>-5.9</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>18.4</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="1" t="n">
@@ -4469,42 +4587,45 @@
         <v>-5</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>19.7</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="1" t="n">
@@ -4567,42 +4688,45 @@
         <v>-3.6</v>
       </c>
       <c r="AO39" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>21.1</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="1" t="n">
@@ -4665,36 +4789,39 @@
         <v>-6.1</v>
       </c>
       <c r="AO40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="1" t="n">
@@ -4760,36 +4887,39 @@
         <v>-11.8</v>
       </c>
       <c r="AO41" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AP41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="1" t="n">
@@ -4855,36 +4985,39 @@
         <v>-11.8</v>
       </c>
       <c r="AO42" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AP42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="1" t="n">
@@ -4950,36 +5083,39 @@
         <v>-10.4</v>
       </c>
       <c r="AO43" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AP43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="1" t="n">
@@ -5045,36 +5181,39 @@
         <v>-10.4</v>
       </c>
       <c r="AO44" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AP44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="1" t="n">
@@ -5140,36 +5279,39 @@
         <v>-11.2</v>
       </c>
       <c r="AO45" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AP45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="1" t="n">
@@ -5235,36 +5377,39 @@
         <v>-11.2</v>
       </c>
       <c r="AO46" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AP46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="1" t="n">
@@ -5330,36 +5475,39 @@
         <v>-9.2</v>
       </c>
       <c r="AO47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AP47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="1" t="n">
@@ -5425,36 +5573,39 @@
         <v>-9.2</v>
       </c>
       <c r="AO48" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AP48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="1" t="n">
@@ -5464,36 +5615,39 @@
         <v>-6.8</v>
       </c>
       <c r="AO49" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AP49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="1" t="n">
@@ -5503,36 +5657,39 @@
         <v>-6.8</v>
       </c>
       <c r="AO50" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AP50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="1" t="n">
@@ -5545,36 +5702,39 @@
         <v>500</v>
       </c>
       <c r="AO51" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AP51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="1" t="n">
@@ -5584,36 +5744,39 @@
         <v>-6.7</v>
       </c>
       <c r="AO52" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AP52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="1" t="n">
@@ -5623,36 +5786,39 @@
         <v>-6.2</v>
       </c>
       <c r="AO53" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AP53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="1" t="n">
@@ -5662,36 +5828,39 @@
         <v>-6.2</v>
       </c>
       <c r="AO54" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AP54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="1" t="n">
@@ -5701,36 +5870,39 @@
         <v>-6</v>
       </c>
       <c r="AO55" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AP55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="1" t="n">
@@ -5740,36 +5912,39 @@
         <v>-6</v>
       </c>
       <c r="AO56" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AP56" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ56" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="1" t="n">
@@ -5779,33 +5954,36 @@
         <v>-8</v>
       </c>
       <c r="AP57" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ57" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="1" t="n">
@@ -5871,36 +6049,39 @@
         <v>-5.5</v>
       </c>
       <c r="AO58" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP58" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ58" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="1" t="n">
@@ -5966,36 +6147,39 @@
         <v>-5.4</v>
       </c>
       <c r="AO59" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP59" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ59" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="1" t="n">
@@ -6061,36 +6245,39 @@
         <v>-4.5</v>
       </c>
       <c r="AO60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP60" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ60" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="1" t="n">
@@ -6156,36 +6343,39 @@
         <v>-4.4</v>
       </c>
       <c r="AO61" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP61" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ61" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="1" t="n">
@@ -6251,36 +6441,39 @@
         <v>-3.6</v>
       </c>
       <c r="AO62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AP62" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ62" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="1" t="n">
@@ -6346,42 +6539,45 @@
         <v>-6.1</v>
       </c>
       <c r="AO63" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ63" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>13.4</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N64" s="1" t="n">
         <v>-9.5</v>
@@ -6443,42 +6639,45 @@
         <v>-11.8</v>
       </c>
       <c r="AO64" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP64" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ64" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>13.6</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N65" s="1" t="n">
         <v>-9.5</v>
@@ -6540,42 +6739,45 @@
         <v>-11.8</v>
       </c>
       <c r="AO65" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP65" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ65" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>14.8</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N66" s="1" t="n">
         <v>-9.5</v>
@@ -6637,42 +6839,45 @@
         <v>-11.8</v>
       </c>
       <c r="AO66" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP66" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ66" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>15.2</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N67" s="1" t="n">
         <v>-9.5</v>
@@ -6734,42 +6939,45 @@
         <v>-11.8</v>
       </c>
       <c r="AO67" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP67" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ67" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>13.4</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N68" s="1" t="n">
         <v>-8.2</v>
@@ -6831,42 +7039,45 @@
         <v>-10.4</v>
       </c>
       <c r="AO68" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP68" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ68" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>14.4</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N69" s="1" t="n">
         <v>-8.2</v>
@@ -6928,42 +7139,45 @@
         <v>-10.4</v>
       </c>
       <c r="AO69" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP69" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ69" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>14.7</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N70" s="1" t="n">
         <v>-8.2</v>
@@ -7025,42 +7239,45 @@
         <v>-10.4</v>
       </c>
       <c r="AO70" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP70" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ70" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>15.2</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N71" s="1" t="n">
         <v>-7.2</v>
@@ -7122,42 +7339,45 @@
         <v>-9.2</v>
       </c>
       <c r="AO71" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP71" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ71" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>16</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N72" s="1" t="n">
         <v>-7.2</v>
@@ -7219,42 +7439,45 @@
         <v>-9.2</v>
       </c>
       <c r="AO72" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP72" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ72" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73" s="1" t="n">
         <v>16.1</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N73" s="1" t="n">
         <v>-7.2</v>
@@ -7316,42 +7539,45 @@
         <v>-9.2</v>
       </c>
       <c r="AO73" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP73" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ73" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74" s="1" t="n">
         <v>16.3</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N74" s="1" t="n">
         <v>-7.2</v>
@@ -7413,42 +7639,45 @@
         <v>-9.2</v>
       </c>
       <c r="AO74" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP74" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ74" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75" s="1" t="n">
         <v>17.4</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N75" s="1" t="n">
         <v>-7.2</v>
@@ -7510,232 +7739,250 @@
         <v>-9.2</v>
       </c>
       <c r="AO75" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP75" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ75" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>15.7</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N76" s="1" t="n">
         <v>-6.8</v>
       </c>
       <c r="AP76" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ76" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>16.3</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N77" s="1" t="n">
         <v>-6.8</v>
       </c>
       <c r="AP77" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ77" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>17.5</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N78" s="1" t="n">
         <v>-6.7</v>
       </c>
       <c r="AP78" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ78" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>17.6</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N79" s="1" t="n">
         <v>-6.7</v>
       </c>
       <c r="AP79" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ79" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>17.7</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N80" s="1" t="n">
         <v>-6.7</v>
       </c>
       <c r="AP80" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ80" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>16.3</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N81" s="1" t="n">
         <v>-8</v>
@@ -7797,42 +8044,45 @@
         <v>-9</v>
       </c>
       <c r="AO81" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP81" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ81" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K82" s="1" t="n">
         <v>16.6</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N82" s="1" t="n">
         <v>-5.5</v>
@@ -7894,42 +8144,45 @@
         <v>-6.6</v>
       </c>
       <c r="AO82" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP82" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ82" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83" s="1" t="n">
         <v>16.7</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N83" s="1" t="n">
         <v>-5.5</v>
@@ -7991,42 +8244,45 @@
         <v>-6.6</v>
       </c>
       <c r="AO83" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP83" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ83" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84" s="1" t="n">
         <v>16.2</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N84" s="1" t="n">
         <v>-6.2</v>
@@ -8088,42 +8344,45 @@
         <v>-7.8</v>
       </c>
       <c r="AO84" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP84" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ84" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>15.8</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N85" s="1" t="n">
         <v>-7.5</v>
@@ -8185,42 +8444,45 @@
         <v>-5.6</v>
       </c>
       <c r="AO85" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP85" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ85" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>16.5</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N86" s="1" t="n">
         <v>-7.2</v>
@@ -8282,42 +8544,45 @@
         <v>-5.6</v>
       </c>
       <c r="AO86" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AP86" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ86" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>17.4</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N87" s="1" t="n">
         <v>-6.6</v>
@@ -8379,42 +8644,45 @@
         <v>-4.5</v>
       </c>
       <c r="AO87" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AP87" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ87" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>18.2</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N88" s="1" t="n">
         <v>-6.6</v>
@@ -8476,42 +8744,45 @@
         <v>-5</v>
       </c>
       <c r="AO88" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AP88" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ88" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>18.2</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N89" s="1" t="n">
         <v>-6</v>
@@ -8573,42 +8844,45 @@
         <v>-5.7</v>
       </c>
       <c r="AO89" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP89" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ89" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90" s="1" t="n">
         <v>18.5</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N90" s="1" t="n">
         <v>-5.7</v>
@@ -8670,51 +8944,57 @@
         <v>-4.4</v>
       </c>
       <c r="AO90" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP90" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ90" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91" s="1" t="n">
         <v>18.7</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N91" s="1" t="n">
         <v>-5.7</v>
       </c>
       <c r="AO91" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AP91" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ91" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
